--- a/biology/Zoologie/Glaucus_(nudibranche)/Glaucus_(nudibranche).xlsx
+++ b/biology/Zoologie/Glaucus_(nudibranche)/Glaucus_(nudibranche).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucus est un genre de nudibranches, actuellement monotypique : il ne contient que l'espèce Glaucus atlanticus. 
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Longtemps monotypique, ne comptant que l'espèce Glaucus atlanticus, il est depuis 2004 fusionné avec le genre Glaucilla, qui ne comptait que Glaucilla marginata devenue Glaucus marginatus[3],[4]. En mai 2014, trois nouvelles espèces proches de Glaucus marginatus sont décrites : Glaucus bennettae, Glaucus thompsoni et Glaucus mcfarlanei[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longtemps monotypique, ne comptant que l'espèce Glaucus atlanticus, il est depuis 2004 fusionné avec le genre Glaucilla, qui ne comptait que Glaucilla marginata devenue Glaucus marginatus,. En mai 2014, trois nouvelles espèces proches de Glaucus marginatus sont décrites : Glaucus bennettae, Glaucus thompsoni et Glaucus mcfarlanei.
 Ce genre actuellement monotypique a un moment compté cinq espèces et un taxon inquirendum  :
 Glaucus atlanticus Forster, 1777 -- océans Atlantique et Indien
 Glaucus bennettae Churchill, Valdés &amp; Ó Foighil, 2014 -- Pacifique sud (transféré sous Glaucilla)
